--- a/inst/extdata/LDL_C.xlsx
+++ b/inst/extdata/LDL_C.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/yzh10_iu_edu/Documents/research/nuMoM2b/whole_sequencing/for_use/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/yzh10_iu_edu/Documents/research/nuMoM2b/whole_sequencing/mr.carv/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD2823F4-7503-0146-BD73-96ADABCEBC7C}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3D53E5-FE45-0443-A1F1-B73002164951}"/>
   <bookViews>
-    <workbookView xWindow="61920" yWindow="1020" windowWidth="21600" windowHeight="16940" activeTab="1" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
+    <workbookView xWindow="38400" yWindow="2720" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="indv_effect" sheetId="1" r:id="rId1"/>
-    <sheet name="gene_effect" sheetId="2" r:id="rId2"/>
+    <sheet name="coding" sheetId="2" r:id="rId2"/>
+    <sheet name="noncoding" sheetId="3" r:id="rId3"/>
+    <sheet name="window" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="507">
   <si>
     <t>A</t>
   </si>
@@ -1468,6 +1470,96 @@
   </si>
   <si>
     <t>disruptive_missense</t>
+  </si>
+  <si>
+    <t>enhancer_CAGE</t>
+  </si>
+  <si>
+    <t>enhancer_DHS</t>
+  </si>
+  <si>
+    <t>promoter_DHS</t>
+  </si>
+  <si>
+    <t>Start.Loc</t>
+  </si>
+  <si>
+    <t>End.Loc</t>
+  </si>
+  <si>
+    <t>Genes linked to the region</t>
+  </si>
+  <si>
+    <t>Regions (regulatory element in the region)</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4-Intron4 (EH38E1938952 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Exon4-Intron4-Exon5-Intron5-Exon6 (EH38E1938952 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron1-Exon2-Intron2</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4-Intron4-Exon5-Intron5 (EH38E1349472 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron4-Exon5-Intron5 (EH38E1349472 distal enhancer like signature, EH38E1349473 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Exon9-Intron9-Exon10-Intron10</t>
+  </si>
+  <si>
+    <t>Intron2 (EH38E1979130 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron7-Exon8-Intron8-Exon9-Intron9</t>
+  </si>
+  <si>
+    <t>TDRD15 (near by gene)</t>
+  </si>
+  <si>
+    <t>Intron28</t>
+  </si>
+  <si>
+    <t>Exon4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exon4                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>Exon2-Intron2</t>
+  </si>
+  <si>
+    <t>Exon9-Intron9-Exon10</t>
+  </si>
+  <si>
+    <t>Intron2-Exon3-Intron3</t>
+  </si>
+  <si>
+    <t>Exon5-Intron5</t>
+  </si>
+  <si>
+    <t>Intron3-Exon4-Intron4-Exon5</t>
+  </si>
+  <si>
+    <t>Intron16-Exon17 (EH38E1938966 distal enhancer like signature, EH38E1938967 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Intron16-Exon17-Intron17 (EH38E1938966 distal enhancer like signature, EH38E1938967 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>APOB (near by gene)</t>
+  </si>
+  <si>
+    <t>Intron6-Exon7-Intron7-Exon8-Intron8-Exon9</t>
+  </si>
+  <si>
+    <t>Exon7-Intron7-Exon8</t>
+  </si>
+  <si>
+    <t>AL109933.1(near by gene)</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1538,6 +1630,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1547,7 +1646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1659,11 +1758,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1761,6 +1922,116 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14913,7 +15184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D427D3-02D1-0F48-84C3-582D66EA14C9}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -15773,4 +16044,1498 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF3F3FD-AD0B-3D47-9CFA-6C086427BF5B}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="13">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="13">
+        <v>370</v>
+      </c>
+      <c r="G2" s="14">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2.0430000000000001E-3</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1.833E-3</v>
+      </c>
+      <c r="J2" s="14">
+        <v>4.7079999999999996E-6</v>
+      </c>
+      <c r="K2" s="44">
+        <v>2.31954015823489</v>
+      </c>
+      <c r="L2">
+        <v>0.54010143020570001</v>
+      </c>
+      <c r="M2" s="45">
+        <v>1.74978565856087E-5</v>
+      </c>
+      <c r="N2" s="17">
+        <v>379</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2.3462344067581899E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1145</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2.3249999999999999E-5</v>
+      </c>
+      <c r="H3" s="21">
+        <v>3.6889999999999999E-2</v>
+      </c>
+      <c r="I3" s="21">
+        <v>9.2050000000000001E-5</v>
+      </c>
+      <c r="J3" s="21">
+        <v>4.8829999999999998E-5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-0.47208016466045599</v>
+      </c>
+      <c r="L3">
+        <v>0.38928728519717498</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.22525291668632499</v>
+      </c>
+      <c r="N3" s="24">
+        <v>1126</v>
+      </c>
+      <c r="O3" s="25">
+        <v>3.6540462333771801E-24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="20">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2548</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1.016E-4</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1.7359999999999999E-3</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1.6569999999999999E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.103119013855189</v>
+      </c>
+      <c r="L4">
+        <v>0.32288019013276398</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.74944415474580905</v>
+      </c>
+      <c r="N4" s="24">
+        <v>2171</v>
+      </c>
+      <c r="O4" s="25">
+        <v>3.0614768239652698E-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="20">
+        <v>338</v>
+      </c>
+      <c r="G5" s="21">
+        <v>8.9269999999999996E-4</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="I5" s="21">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="J5" s="21">
+        <v>8.6410000000000002E-4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-0.55079585890975802</v>
+      </c>
+      <c r="L5">
+        <v>0.50114705042244101</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.27173738608929998</v>
+      </c>
+      <c r="N5" s="24">
+        <v>339</v>
+      </c>
+      <c r="O5" s="25">
+        <v>6.2335432921596601E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="27">
+        <v>582</v>
+      </c>
+      <c r="G6" s="28">
+        <v>2.8119999999999998E-3</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0.1618</v>
+      </c>
+      <c r="I6" s="28">
+        <v>5.0279999999999997E-4</v>
+      </c>
+      <c r="J6" s="28">
+        <v>1.31E-3</v>
+      </c>
+      <c r="K6" s="38">
+        <v>-1.2541853204933</v>
+      </c>
+      <c r="L6">
+        <v>0.43872075946280298</v>
+      </c>
+      <c r="M6" s="39">
+        <v>4.25337206401326E-3</v>
+      </c>
+      <c r="N6" s="30">
+        <v>593</v>
+      </c>
+      <c r="O6" s="31">
+        <v>5.83233797369339E-25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65817AE-EFB2-3149-A03E-023FCF44018F}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="54">
+        <v>19</v>
+      </c>
+      <c r="B2" s="54">
+        <v>11104547</v>
+      </c>
+      <c r="C2" s="55">
+        <v>11106546</v>
+      </c>
+      <c r="D2" s="55">
+        <v>341</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="68">
+        <v>1.079</v>
+      </c>
+      <c r="H2">
+        <v>0.54887615020577296</v>
+      </c>
+      <c r="I2" s="71">
+        <v>4.9242911507202301E-2</v>
+      </c>
+      <c r="J2" s="74">
+        <v>307</v>
+      </c>
+      <c r="K2" s="75">
+        <v>3.3602151607958798E-3</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
+        <v>19</v>
+      </c>
+      <c r="B3" s="56">
+        <v>11105547</v>
+      </c>
+      <c r="C3" s="57">
+        <v>11107546</v>
+      </c>
+      <c r="D3" s="57">
+        <v>342</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" s="69">
+        <v>1.133</v>
+      </c>
+      <c r="H3">
+        <v>0.53083436110114701</v>
+      </c>
+      <c r="I3" s="72">
+        <v>3.2853515542824403E-2</v>
+      </c>
+      <c r="J3" s="76">
+        <v>325</v>
+      </c>
+      <c r="K3" s="77">
+        <v>1.7838242503718201E-3</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56">
+        <v>55043464</v>
+      </c>
+      <c r="C4" s="57">
+        <v>55045463</v>
+      </c>
+      <c r="D4" s="57">
+        <v>306</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="69">
+        <v>-1.5940000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.58431465915782199</v>
+      </c>
+      <c r="I4" s="72">
+        <v>6.3739520596441503E-3</v>
+      </c>
+      <c r="J4" s="76">
+        <v>299</v>
+      </c>
+      <c r="K4" s="77">
+        <v>4.4217641018695596E-6</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
+        <v>1</v>
+      </c>
+      <c r="B5" s="56">
+        <v>55051464</v>
+      </c>
+      <c r="C5" s="57">
+        <v>55053463</v>
+      </c>
+      <c r="D5" s="57">
+        <v>329</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="69">
+        <v>-0.96499999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.59649721649754495</v>
+      </c>
+      <c r="I5" s="72">
+        <v>0.105754009215646</v>
+      </c>
+      <c r="J5" s="76">
+        <v>355</v>
+      </c>
+      <c r="K5" s="77">
+        <v>1.42534370864946E-24</v>
+      </c>
+      <c r="L5" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
+        <v>1</v>
+      </c>
+      <c r="B6" s="56">
+        <v>55052464</v>
+      </c>
+      <c r="C6" s="57">
+        <v>55054463</v>
+      </c>
+      <c r="D6" s="57">
+        <v>327</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" s="69">
+        <v>-0.84599999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.57910775113510604</v>
+      </c>
+      <c r="I6" s="72">
+        <v>0.14417055875058099</v>
+      </c>
+      <c r="J6" s="76">
+        <v>355</v>
+      </c>
+      <c r="K6" s="77">
+        <v>1.5940655359565199E-24</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>1</v>
+      </c>
+      <c r="B7" s="56">
+        <v>55058464</v>
+      </c>
+      <c r="C7" s="57">
+        <v>55060463</v>
+      </c>
+      <c r="D7" s="57">
+        <v>334</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="G7" s="69">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.52685753043938099</v>
+      </c>
+      <c r="I7" s="72">
+        <v>0.88265883360420005</v>
+      </c>
+      <c r="J7" s="76">
+        <v>328</v>
+      </c>
+      <c r="K7" s="77">
+        <v>4.4408920985006301E-15</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="56">
+        <v>2</v>
+      </c>
+      <c r="B8" s="56">
+        <v>21259258</v>
+      </c>
+      <c r="C8" s="57">
+        <v>21261257</v>
+      </c>
+      <c r="D8" s="57">
+        <v>294</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="G8" s="69">
+        <v>-3.6749999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.68258687542934504</v>
+      </c>
+      <c r="I8" s="72">
+        <v>7.2723801298341894E-8</v>
+      </c>
+      <c r="J8" s="76">
+        <v>298</v>
+      </c>
+      <c r="K8" s="77">
+        <v>0.199137236342288</v>
+      </c>
+      <c r="L8" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="56">
+        <v>1</v>
+      </c>
+      <c r="B9" s="56">
+        <v>55057464</v>
+      </c>
+      <c r="C9" s="57">
+        <v>55059463</v>
+      </c>
+      <c r="D9" s="57">
+        <v>315</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" s="69">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.59939112714783005</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0.17851370297386901</v>
+      </c>
+      <c r="J9" s="76">
+        <v>350</v>
+      </c>
+      <c r="K9" s="77">
+        <v>3.7747582837255299E-15</v>
+      </c>
+      <c r="L9" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="56">
+        <v>2</v>
+      </c>
+      <c r="B10" s="56">
+        <v>21258258</v>
+      </c>
+      <c r="C10" s="57">
+        <v>21260257</v>
+      </c>
+      <c r="D10" s="57">
+        <v>268</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G10" s="69">
+        <v>-4.1630000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.73237791677084296</v>
+      </c>
+      <c r="I10" s="72">
+        <v>1.3150689560720999E-8</v>
+      </c>
+      <c r="J10" s="76">
+        <v>280</v>
+      </c>
+      <c r="K10" s="77">
+        <v>0.93232133088495595</v>
+      </c>
+      <c r="L10" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="56">
+        <v>2</v>
+      </c>
+      <c r="B11" s="56">
+        <v>21153258</v>
+      </c>
+      <c r="C11" s="57">
+        <v>21155257</v>
+      </c>
+      <c r="D11" s="57">
+        <v>292</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="69">
+        <v>-0.307</v>
+      </c>
+      <c r="H11">
+        <v>0.46750853048637198</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0.51157479178934495</v>
+      </c>
+      <c r="J11" s="76">
+        <v>310</v>
+      </c>
+      <c r="K11" s="77">
+        <v>4.2497427799048601E-10</v>
+      </c>
+      <c r="L11" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>6</v>
+      </c>
+      <c r="B12" s="58">
+        <v>160564812</v>
+      </c>
+      <c r="C12" s="59">
+        <v>160566811</v>
+      </c>
+      <c r="D12" s="59">
+        <v>409</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="G12" s="70">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.45195925128520698</v>
+      </c>
+      <c r="I12" s="73">
+        <v>0.64930579780473097</v>
+      </c>
+      <c r="J12" s="78">
+        <v>396</v>
+      </c>
+      <c r="K12" s="79">
+        <v>0.24548956694216201</v>
+      </c>
+      <c r="L12" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="54">
+        <v>19</v>
+      </c>
+      <c r="B13" s="54">
+        <v>11105413</v>
+      </c>
+      <c r="C13" s="55">
+        <v>11105597</v>
+      </c>
+      <c r="D13" s="54">
+        <v>40</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" s="84">
+        <v>20.0247796115755</v>
+      </c>
+      <c r="H13">
+        <v>3.2443555927005399</v>
+      </c>
+      <c r="I13" s="85">
+        <v>6.7350432492549805E-10</v>
+      </c>
+      <c r="J13" s="43">
+        <v>39</v>
+      </c>
+      <c r="K13" s="18">
+        <v>3.3857973878913102E-2</v>
+      </c>
+      <c r="L13" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A14" s="56">
+        <v>19</v>
+      </c>
+      <c r="B14" s="56">
+        <v>11105304</v>
+      </c>
+      <c r="C14" s="57">
+        <v>11105608</v>
+      </c>
+      <c r="D14" s="56">
+        <v>60</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="G14" s="86">
+        <v>10.5340295244686</v>
+      </c>
+      <c r="H14">
+        <v>2.1661797186784102</v>
+      </c>
+      <c r="I14" s="87">
+        <v>1.1564748668892001E-6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" s="25">
+        <v>5.3317515197154296E-3</v>
+      </c>
+      <c r="L14" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="56">
+        <v>1</v>
+      </c>
+      <c r="B15" s="56">
+        <v>55043869</v>
+      </c>
+      <c r="C15" s="57">
+        <v>55045005</v>
+      </c>
+      <c r="D15" s="56">
+        <v>170</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G15" s="86">
+        <v>-6.0423180695721301</v>
+      </c>
+      <c r="H15">
+        <v>0.827907530715708</v>
+      </c>
+      <c r="I15" s="87">
+        <v>2.9142487756764902E-13</v>
+      </c>
+      <c r="J15" s="2">
+        <v>164</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1.0849011370161999E-5</v>
+      </c>
+      <c r="L15" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="56">
+        <v>19</v>
+      </c>
+      <c r="B16" s="56">
+        <v>11113267</v>
+      </c>
+      <c r="C16" s="57">
+        <v>11113639</v>
+      </c>
+      <c r="D16" s="56">
+        <v>80</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" s="86">
+        <v>8.54962241461606</v>
+      </c>
+      <c r="H16">
+        <v>1.8333876028695599</v>
+      </c>
+      <c r="I16" s="87">
+        <v>3.1119014779600398E-6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>65</v>
+      </c>
+      <c r="K16" s="25">
+        <v>4.4408920985006301E-16</v>
+      </c>
+      <c r="L16" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="56">
+        <v>1</v>
+      </c>
+      <c r="B17" s="56">
+        <v>55043863</v>
+      </c>
+      <c r="C17" s="57">
+        <v>55045960</v>
+      </c>
+      <c r="D17" s="56">
+        <v>300</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G17" s="86">
+        <v>-2.4949373374766002</v>
+      </c>
+      <c r="H17">
+        <v>0.52110135188790296</v>
+      </c>
+      <c r="I17" s="87">
+        <v>1.68606209501518E-6</v>
+      </c>
+      <c r="J17" s="2">
+        <v>313</v>
+      </c>
+      <c r="K17" s="25">
+        <v>5.68271285902755E-4</v>
+      </c>
+      <c r="L17" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="56">
+        <v>19</v>
+      </c>
+      <c r="B18" s="56">
+        <v>11102570</v>
+      </c>
+      <c r="C18" s="57">
+        <v>11102849</v>
+      </c>
+      <c r="D18" s="56">
+        <v>40</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="G18" s="86">
+        <v>17.5009942371161</v>
+      </c>
+      <c r="H18">
+        <v>3.91315189018139</v>
+      </c>
+      <c r="I18" s="87">
+        <v>7.7363798389735306E-6</v>
+      </c>
+      <c r="J18" s="2">
+        <v>38</v>
+      </c>
+      <c r="K18" s="25">
+        <v>3.9858116807067696E-12</v>
+      </c>
+      <c r="L18" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="56">
+        <v>1</v>
+      </c>
+      <c r="B19" s="56">
+        <v>55052675</v>
+      </c>
+      <c r="C19" s="57">
+        <v>55052853</v>
+      </c>
+      <c r="D19" s="56">
+        <v>39</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="G19" s="86">
+        <v>-2.13866459713556</v>
+      </c>
+      <c r="H19">
+        <v>1.1160244603474401</v>
+      </c>
+      <c r="I19" s="87">
+        <v>5.5323851984856301E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>46</v>
+      </c>
+      <c r="K19" s="25">
+        <v>6.6527087495692996E-25</v>
+      </c>
+      <c r="L19" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="56">
+        <v>1</v>
+      </c>
+      <c r="B20" s="56">
+        <v>55051697</v>
+      </c>
+      <c r="C20" s="57">
+        <v>55052853</v>
+      </c>
+      <c r="D20" s="56">
+        <v>199</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="86">
+        <v>-1.69410081805676</v>
+      </c>
+      <c r="H20">
+        <v>0.67006505575654896</v>
+      </c>
+      <c r="I20" s="87">
+        <v>1.14628385230163E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>217</v>
+      </c>
+      <c r="K20" s="25">
+        <v>1.06222324165605E-24</v>
+      </c>
+      <c r="L20" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="56">
+        <v>2</v>
+      </c>
+      <c r="B21" s="56">
+        <v>21258902</v>
+      </c>
+      <c r="C21" s="57">
+        <v>21261042</v>
+      </c>
+      <c r="D21" s="56">
+        <v>300</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>490</v>
+      </c>
+      <c r="G21" s="86">
+        <v>-4.2064582405028004</v>
+      </c>
+      <c r="H21">
+        <v>0.69845130746912498</v>
+      </c>
+      <c r="I21" s="87">
+        <v>1.7168982142639E-9</v>
+      </c>
+      <c r="J21" s="2">
+        <v>299</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0.28075893639937899</v>
+      </c>
+      <c r="L21" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+      <c r="A22" s="56">
+        <v>19</v>
+      </c>
+      <c r="B22" s="56">
+        <v>11129438</v>
+      </c>
+      <c r="C22" s="57">
+        <v>11129665</v>
+      </c>
+      <c r="D22" s="56">
+        <v>40</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="G22" s="86">
+        <v>12.3670944593001</v>
+      </c>
+      <c r="H22">
+        <v>1.90397727653084</v>
+      </c>
+      <c r="I22" s="87">
+        <v>8.2812948552751597E-11</v>
+      </c>
+      <c r="J22" s="2">
+        <v>35</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0.59163136730003496</v>
+      </c>
+      <c r="L22" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="A23" s="56">
+        <v>19</v>
+      </c>
+      <c r="B23" s="56">
+        <v>11129445</v>
+      </c>
+      <c r="C23" s="57">
+        <v>11129720</v>
+      </c>
+      <c r="D23" s="56">
+        <v>50</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="G23" s="86">
+        <v>11.5091847363411</v>
+      </c>
+      <c r="H23">
+        <v>1.8353239176484399</v>
+      </c>
+      <c r="I23" s="87">
+        <v>3.5890181820558998E-10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>49</v>
+      </c>
+      <c r="K23" s="25">
+        <v>1.4602280495879001E-9</v>
+      </c>
+      <c r="L23" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="56">
+        <v>2</v>
+      </c>
+      <c r="B24" s="56">
+        <v>21259115</v>
+      </c>
+      <c r="C24" s="57">
+        <v>21261187</v>
+      </c>
+      <c r="D24" s="56">
+        <v>292</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>490</v>
+      </c>
+      <c r="G24" s="86">
+        <v>-4.1416573339641598</v>
+      </c>
+      <c r="H24">
+        <v>0.69838621161306302</v>
+      </c>
+      <c r="I24" s="87">
+        <v>3.0233533089869601E-9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>299</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0.279066338618984</v>
+      </c>
+      <c r="L24" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="56">
+        <v>2</v>
+      </c>
+      <c r="B25" s="56">
+        <v>21057452</v>
+      </c>
+      <c r="C25" s="57">
+        <v>21059412</v>
+      </c>
+      <c r="D25" s="56">
+        <v>300</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="86">
+        <v>-0.88013895388051799</v>
+      </c>
+      <c r="H25">
+        <v>0.56652960457595503</v>
+      </c>
+      <c r="I25" s="87">
+        <v>0.120288892243505</v>
+      </c>
+      <c r="J25" s="2">
+        <v>314</v>
+      </c>
+      <c r="K25" s="25">
+        <v>9.2269569762493099E-10</v>
+      </c>
+      <c r="L25" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A26" s="56">
+        <v>1</v>
+      </c>
+      <c r="B26" s="56">
+        <v>55056872</v>
+      </c>
+      <c r="C26" s="57">
+        <v>55058636</v>
+      </c>
+      <c r="D26" s="56">
+        <v>268</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="G26" s="86">
+        <v>1.1369109319513699</v>
+      </c>
+      <c r="H26">
+        <v>0.62429589402768604</v>
+      </c>
+      <c r="I26" s="87">
+        <v>6.8590274697839598E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>299</v>
+      </c>
+      <c r="K26" s="25">
+        <v>1.33226762955019E-15</v>
+      </c>
+      <c r="L26" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="56">
+        <v>2</v>
+      </c>
+      <c r="B27" s="56">
+        <v>21152293</v>
+      </c>
+      <c r="C27" s="57">
+        <v>21153444</v>
+      </c>
+      <c r="D27" s="56">
+        <v>180</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="86">
+        <v>0.414954831854286</v>
+      </c>
+      <c r="H27">
+        <v>0.69661049439303202</v>
+      </c>
+      <c r="I27" s="87">
+        <v>0.55139104300006603</v>
+      </c>
+      <c r="J27" s="2">
+        <v>204</v>
+      </c>
+      <c r="K27" s="25">
+        <v>5.0482371782845101E-6</v>
+      </c>
+      <c r="L27" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="56">
+        <v>6</v>
+      </c>
+      <c r="B28" s="56">
+        <v>160565246</v>
+      </c>
+      <c r="C28" s="57">
+        <v>160566047</v>
+      </c>
+      <c r="D28" s="56">
+        <v>180</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="G28" s="86">
+        <v>0.29896794730308401</v>
+      </c>
+      <c r="H28">
+        <v>0.58098440924667005</v>
+      </c>
+      <c r="I28" s="87">
+        <v>0.60684054077911898</v>
+      </c>
+      <c r="J28" s="2">
+        <v>166</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0.13961900123358201</v>
+      </c>
+      <c r="L28" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="56">
+        <v>1</v>
+      </c>
+      <c r="B29" s="56">
+        <v>55057282</v>
+      </c>
+      <c r="C29" s="57">
+        <v>55058189</v>
+      </c>
+      <c r="D29" s="56">
+        <v>140</v>
+      </c>
+      <c r="E29" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="G29" s="86">
+        <v>-2.8175610802823398E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.96503640735750895</v>
+      </c>
+      <c r="I29" s="87">
+        <v>0.97670793434645797</v>
+      </c>
+      <c r="J29" s="2">
+        <v>162</v>
+      </c>
+      <c r="K29" s="25">
+        <v>1.8402834811581699E-11</v>
+      </c>
+      <c r="L29" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="56">
+        <v>6</v>
+      </c>
+      <c r="B30" s="56">
+        <v>160683579</v>
+      </c>
+      <c r="C30" s="57">
+        <v>160685015</v>
+      </c>
+      <c r="D30" s="56">
+        <v>290</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>506</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="86">
+        <v>3.9234912576468699</v>
+      </c>
+      <c r="H30">
+        <v>0.65063498816710197</v>
+      </c>
+      <c r="I30" s="87">
+        <v>1.63706825433101E-9</v>
+      </c>
+      <c r="J30" s="2">
+        <v>291</v>
+      </c>
+      <c r="K30" s="25">
+        <v>8.4810957483072403E-4</v>
+      </c>
+      <c r="L30" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58">
+        <v>2</v>
+      </c>
+      <c r="B31" s="58">
+        <v>21170775</v>
+      </c>
+      <c r="C31" s="59">
+        <v>21171126</v>
+      </c>
+      <c r="D31" s="58">
+        <v>50</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="88">
+        <v>-5.5856153941149298</v>
+      </c>
+      <c r="H31">
+        <v>0.85386442862296996</v>
+      </c>
+      <c r="I31" s="89">
+        <v>6.0875629843183796E-11</v>
+      </c>
+      <c r="J31" s="37">
+        <v>55</v>
+      </c>
+      <c r="K31" s="31">
+        <v>1.28182117009601E-6</v>
+      </c>
+      <c r="L31" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/extdata/LDL_C.xlsx
+++ b/inst/extdata/LDL_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/yzh10_iu_edu/Documents/research/nuMoM2b/whole_sequencing/mr.carv/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3D53E5-FE45-0443-A1F1-B73002164951}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDCB031-C145-3941-8751-3531E83D0FDC}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2720" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
+    <workbookView xWindow="5400" yWindow="780" windowWidth="30240" windowHeight="18880" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="indv_effect" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="506">
   <si>
     <t>A</t>
   </si>
@@ -1404,9 +1404,6 @@
   </si>
   <si>
     <t>rs138994584</t>
-  </si>
-  <si>
-    <t>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000156554505296365</t>
   </si>
   <si>
     <t>rs72654441</t>
@@ -2372,13 +2369,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507F472E-772F-E949-B612-5FED0D7A26C2}">
   <dimension ref="A1:L339"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L339"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
@@ -13683,8 +13681,8 @@
       <c r="G300" s="3">
         <v>0.37594864250705301</v>
       </c>
-      <c r="H300" s="4" t="s">
-        <v>455</v>
+      <c r="H300" s="4">
+        <v>1.5655450529636499E-302</v>
       </c>
       <c r="I300" s="3">
         <v>0.112378597259521</v>
@@ -13751,7 +13749,7 @@
         <v>10</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F302" s="3">
         <v>-20.123173258206201</v>
@@ -13789,7 +13787,7 @@
         <v>6</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F303" s="3">
         <v>-2.7092588955619101</v>
@@ -13827,7 +13825,7 @@
         <v>6</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F304" s="3">
         <v>-19.038618671961501</v>
@@ -14283,7 +14281,7 @@
         <v>6</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F316" s="3">
         <v>-9.9816140269214504</v>
@@ -14435,7 +14433,7 @@
         <v>10</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F320" s="3">
         <v>-1.6441450557324899</v>
@@ -14473,7 +14471,7 @@
         <v>10</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F321" s="3">
         <v>-1.9158291395856399</v>
@@ -14625,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F325" s="3">
         <v>-15.9191528507369</v>
@@ -14663,7 +14661,7 @@
         <v>6</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F326" s="3">
         <v>-20.964948571041301</v>
@@ -14739,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F328" s="3">
         <v>-16.405935485318999</v>
@@ -14815,7 +14813,7 @@
         <v>6</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F330" s="3">
         <v>-10.6719938708319</v>
@@ -14833,7 +14831,7 @@
         <v>14</v>
       </c>
       <c r="K330" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L330" s="6" t="s">
         <v>5</v>
@@ -14891,7 +14889,7 @@
         <v>6</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F332" s="3">
         <v>-7.6597054184176301</v>
@@ -14909,7 +14907,7 @@
         <v>14</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L332" s="6" t="s">
         <v>5</v>
@@ -15003,7 +15001,7 @@
         <v>10</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F335" s="3">
         <v>1.47530948282767</v>
@@ -15021,7 +15019,7 @@
         <v>8</v>
       </c>
       <c r="K335" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L335" s="6" t="s">
         <v>5</v>
@@ -15079,7 +15077,7 @@
         <v>6</v>
       </c>
       <c r="E337" s="43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F337" s="44">
         <v>-16.086004369189901</v>
@@ -15115,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F338" s="3">
         <v>-12.4386743947619</v>
@@ -15151,7 +15149,7 @@
         <v>6</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F339" s="3">
         <v>-1.5682834501227201</v>
@@ -15253,10 +15251,10 @@
         <v>185</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F2" s="13">
         <v>221</v>
@@ -15300,10 +15298,10 @@
         <v>185</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F3" s="20">
         <v>203</v>
@@ -15350,7 +15348,7 @@
         <v>164</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F4" s="20">
         <v>343</v>
@@ -15488,7 +15486,7 @@
         <v>185</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>168</v>
@@ -15535,7 +15533,7 @@
         <v>185</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>163</v>
@@ -15582,7 +15580,7 @@
         <v>185</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>169</v>
@@ -15676,7 +15674,7 @@
         <v>185</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>163</v>
@@ -15723,7 +15721,7 @@
         <v>185</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>163</v>
@@ -15958,7 +15956,7 @@
         <v>185</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>163</v>
@@ -16005,7 +16003,7 @@
         <v>185</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>163</v>
@@ -16117,7 +16115,7 @@
         <v>185</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>163</v>
@@ -16164,7 +16162,7 @@
         <v>185</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>163</v>
@@ -16211,7 +16209,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>163</v>
@@ -16258,7 +16256,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>186</v>
@@ -16305,7 +16303,7 @@
         <v>185</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>186</v>
@@ -16350,7 +16348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65817AE-EFB2-3149-A03E-023FCF44018F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
@@ -16362,19 +16360,19 @@
         <v>154</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>480</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>481</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>175</v>
       </c>
       <c r="E1" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>482</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>483</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>342</v>
@@ -16412,7 +16410,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G2" s="68">
         <v>1.079</v>
@@ -16450,7 +16448,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G3" s="69">
         <v>1.133</v>
@@ -16488,7 +16486,7 @@
         <v>167</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G4" s="69">
         <v>-1.5940000000000001</v>
@@ -16526,7 +16524,7 @@
         <v>167</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G5" s="69">
         <v>-0.96499999999999997</v>
@@ -16564,7 +16562,7 @@
         <v>167</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G6" s="69">
         <v>-0.84599999999999997</v>
@@ -16602,7 +16600,7 @@
         <v>167</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G7" s="69">
         <v>7.8E-2</v>
@@ -16640,7 +16638,7 @@
         <v>285</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G8" s="69">
         <v>-3.6749999999999998</v>
@@ -16678,7 +16676,7 @@
         <v>167</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G9" s="69">
         <v>0.80600000000000005</v>
@@ -16716,7 +16714,7 @@
         <v>285</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G10" s="69">
         <v>-4.1630000000000003</v>
@@ -16751,7 +16749,7 @@
         <v>292</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>163</v>
@@ -16792,7 +16790,7 @@
         <v>310</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G12" s="70">
         <v>0.20599999999999999</v>
@@ -16830,7 +16828,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G13" s="84">
         <v>20.0247796115755</v>
@@ -16868,7 +16866,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G14" s="86">
         <v>10.5340295244686</v>
@@ -16906,7 +16904,7 @@
         <v>167</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G15" s="86">
         <v>-6.0423180695721301</v>
@@ -16944,7 +16942,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G16" s="86">
         <v>8.54962241461606</v>
@@ -16982,7 +16980,7 @@
         <v>167</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G17" s="86">
         <v>-2.4949373374766002</v>
@@ -17020,7 +17018,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G18" s="86">
         <v>17.5009942371161</v>
@@ -17058,7 +17056,7 @@
         <v>167</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G19" s="86">
         <v>-2.13866459713556</v>
@@ -17096,7 +17094,7 @@
         <v>167</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G20" s="86">
         <v>-1.69410081805676</v>
@@ -17134,7 +17132,7 @@
         <v>285</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G21" s="86">
         <v>-4.2064582405028004</v>
@@ -17172,7 +17170,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G22" s="86">
         <v>12.3670944593001</v>
@@ -17210,7 +17208,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G23" s="86">
         <v>11.5091847363411</v>
@@ -17248,7 +17246,7 @@
         <v>285</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G24" s="86">
         <v>-4.1416573339641598</v>
@@ -17283,7 +17281,7 @@
         <v>300</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>163</v>
@@ -17324,7 +17322,7 @@
         <v>167</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G26" s="86">
         <v>1.1369109319513699</v>
@@ -17359,7 +17357,7 @@
         <v>180</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F27" s="57" t="s">
         <v>163</v>
@@ -17400,7 +17398,7 @@
         <v>310</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G28" s="86">
         <v>0.29896794730308401</v>
@@ -17438,7 +17436,7 @@
         <v>167</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G29" s="86">
         <v>-2.8175610802823398E-2</v>
@@ -17473,7 +17471,7 @@
         <v>290</v>
       </c>
       <c r="E30" s="81" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F30" s="57" t="s">
         <v>163</v>
@@ -17511,7 +17509,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F31" s="59" t="s">
         <v>163</v>
